--- a/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type2/pd_results_W20_H200_B16.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type2/pd_results_W20_H200_B16.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5501618122977346</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.4583333333333333</v>
-      </c>
+        <v>0.5495495495495496</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.9289617486338798</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5435435435435435</v>
+        <v>0.5495495495495496</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6910569105691057</v>
+        <v>0.7093023255813954</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5105105105105106</v>
+        <v>0.4684684684684685</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.0858024596523362</v>
+        <v>0.1416904121627564</v>
       </c>
       <c r="J2" t="n">
-        <v>1092.049775492127</v>
+        <v>1856.943564648965</v>
       </c>
       <c r="K2" t="n">
-        <v>1697006.062045463</v>
+        <v>4563012.652683584</v>
       </c>
       <c r="L2" t="n">
-        <v>1302.691852298717</v>
+        <v>2136.120935875023</v>
       </c>
       <c r="M2" t="n">
-        <v>0.684479274537787</v>
+        <v>0.1516087687202315</v>
       </c>
     </row>
   </sheetData>
